--- a/data/sdgs/SDG15.xlsx
+++ b/data/sdgs/SDG15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888130B-0FC9-5C47-82B9-FD6540F9545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0004A-7FE2-3146-B147-481A97403578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1420" windowWidth="29400" windowHeight="16240" xr2:uid="{49E2441D-0E4D-8A4D-A0CC-3B3B109C0290}"/>
   </bookViews>
@@ -1331,49 +1331,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1389,24 +1412,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECF5DB6D-A62F-7B40-A9B0-31F67D7E6189}" name="_SDG15" displayName="_SDG15" ref="A1:L228" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECF5DB6D-A62F-7B40-A9B0-31F67D7E6189}" name="_SDG15" displayName="_SDG15" ref="A1:L228" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:L228" xr:uid="{ECF5DB6D-A62F-7B40-A9B0-31F67D7E6189}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L228">
     <sortCondition ref="A1:A228"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{64EAB0EA-E74E-1E48-8BF1-460D2606B270}" name="keyword_en" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{21122501-A980-9642-AFCC-1E6CC418DDC0}" name="required_context_en" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{58E87C3A-70C5-354A-88E4-7E74895DC3DB}" name="forbidden_context_en" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{228CA5F7-3EF0-3A49-9C24-9910DE69D064}" name="keyword_de" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{7FBEC99D-3544-EB4D-A7B2-F604C0B1ED48}" name="required_context_de" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{B9657F41-65E7-624F-A2B6-F947189EA1B2}" name="forbidden_context_de" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{38E9001B-9BD6-DE4C-A413-BB7244DDCB0A}" name="keyword_fr" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DFAF4F5B-05BC-D340-BB30-9A49E0326194}" name="required_context_fr" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D22A4E7A-B4B9-0D4F-968C-51F55748A845}" name="forbidden_context_fr" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{AC03A6BD-6C70-004C-88E7-9567EF90AA47}" name="keyword_it" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{DDB43A33-9E64-C344-A08A-350019190425}" name="required_context_it" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{4F35AF6B-BD34-5746-A6B4-A539BB77C2A9}" name="forbidden_context_it" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{64EAB0EA-E74E-1E48-8BF1-460D2606B270}" name="keyword_en" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{21122501-A980-9642-AFCC-1E6CC418DDC0}" name="required_context_en" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{58E87C3A-70C5-354A-88E4-7E74895DC3DB}" name="forbidden_context_en" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{228CA5F7-3EF0-3A49-9C24-9910DE69D064}" name="keyword_de" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7FBEC99D-3544-EB4D-A7B2-F604C0B1ED48}" name="required_context_de" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{B9657F41-65E7-624F-A2B6-F947189EA1B2}" name="forbidden_context_de" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{38E9001B-9BD6-DE4C-A413-BB7244DDCB0A}" name="keyword_fr" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{DFAF4F5B-05BC-D340-BB30-9A49E0326194}" name="required_context_fr" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{D22A4E7A-B4B9-0D4F-968C-51F55748A845}" name="forbidden_context_fr" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{AC03A6BD-6C70-004C-88E7-9567EF90AA47}" name="keyword_it" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{DDB43A33-9E64-C344-A08A-350019190425}" name="required_context_it" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{4F35AF6B-BD34-5746-A6B4-A539BB77C2A9}" name="forbidden_context_it" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1711,14 +1734,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359AB425-1D9D-6847-8791-FF6AF2FAD2FF}">
   <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -1898,40 +1921,40 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1951,11 +1974,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C12" s="1"/>
@@ -2100,40 +2123,40 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2156,40 +2179,40 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2210,40 +2233,40 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2280,40 +2303,40 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="K28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2350,40 +2373,40 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="K31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2454,40 +2477,40 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="H36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2508,40 +2531,40 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="H38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K38" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="K38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2562,40 +2585,40 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="K40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2632,78 +2655,78 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="H43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K43" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="K43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="H44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K44" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="K44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2724,40 +2747,40 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K46" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="K46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2874,116 +2897,116 @@
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="H54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K54" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="K54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="H55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K55" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="K55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="H56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="K56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3102,116 +3125,116 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="H64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="K64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="H65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="K65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="H66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K66" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="K66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3232,40 +3255,40 @@
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="H68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="K68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3286,40 +3309,40 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="H70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K70" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="K70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3486,40 +3509,40 @@
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="E81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="H81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K81" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="K81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3588,40 +3611,40 @@
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="H86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K86" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="K86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3644,40 +3667,40 @@
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="E88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="H88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K88" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" t="s">
+      <c r="K88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3718,40 +3741,40 @@
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="H91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K91" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="K91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3836,154 +3859,154 @@
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E97" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="E97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H97" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="H97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K97" t="s">
-        <v>12</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="K97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H98" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="H98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K98" t="s">
-        <v>12</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="K98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B99" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E99" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="E99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H99" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="H99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K99" t="s">
-        <v>12</v>
-      </c>
-      <c r="L99" t="s">
+      <c r="K99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="E100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H100" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="H100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K100" t="s">
-        <v>12</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="K100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4004,40 +4027,40 @@
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="H102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K102" t="s">
-        <v>12</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="K102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4218,40 +4241,40 @@
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E114" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="E114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H114" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" t="s">
-        <v>12</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="H114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K114" t="s">
-        <v>12</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="K114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4274,78 +4297,78 @@
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="E116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H116" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="H116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K116" t="s">
-        <v>12</v>
-      </c>
-      <c r="L116" t="s">
+      <c r="K116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E117" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="E117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="H117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" t="s">
+      <c r="K117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4382,40 +4405,40 @@
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="H120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K120" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" t="s">
+      <c r="K120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4436,40 +4459,40 @@
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="E122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="H122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L122" t="s">
+      <c r="K122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4524,40 +4547,40 @@
       <c r="L125" s="1"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="B126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="E126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" t="s">
-        <v>12</v>
-      </c>
-      <c r="J126" t="s">
+      <c r="H126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K126" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" t="s">
+      <c r="K126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4660,116 +4683,116 @@
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="E133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H133" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" t="s">
-        <v>12</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="H133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K133" t="s">
-        <v>12</v>
-      </c>
-      <c r="L133" t="s">
+      <c r="K133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L133" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="E134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" t="s">
-        <v>12</v>
-      </c>
-      <c r="J134" t="s">
+      <c r="H134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K134" t="s">
-        <v>12</v>
-      </c>
-      <c r="L134" t="s">
+      <c r="K134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L134" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="E135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H135" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" t="s">
+      <c r="H135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K135" t="s">
-        <v>12</v>
-      </c>
-      <c r="L135" t="s">
+      <c r="K135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4790,40 +4813,40 @@
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="B137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="E137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" t="s">
-        <v>12</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="H137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K137" t="s">
-        <v>12</v>
-      </c>
-      <c r="L137" t="s">
+      <c r="K137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L137" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5092,40 +5115,40 @@
       <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E154" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="E154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H154" t="s">
-        <v>12</v>
-      </c>
-      <c r="I154" t="s">
-        <v>12</v>
-      </c>
-      <c r="J154" t="s">
+      <c r="H154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J154" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K154" t="s">
-        <v>12</v>
-      </c>
-      <c r="L154" t="s">
+      <c r="K154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L154" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5146,40 +5169,40 @@
       <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="B156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E156" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="E156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" t="s">
-        <v>12</v>
-      </c>
-      <c r="J156" t="s">
+      <c r="H156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J156" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K156" t="s">
-        <v>12</v>
-      </c>
-      <c r="L156" t="s">
+      <c r="K156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L156" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5248,40 +5271,40 @@
       <c r="L160" s="1"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="A161" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="B161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E161" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="E161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H161" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" t="s">
-        <v>12</v>
-      </c>
-      <c r="J161" t="s">
+      <c r="H161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K161" t="s">
-        <v>12</v>
-      </c>
-      <c r="L161" t="s">
+      <c r="K161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L161" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5322,116 +5345,116 @@
       <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="A164" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E164" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H164" t="s">
-        <v>12</v>
-      </c>
-      <c r="I164" t="s">
-        <v>12</v>
-      </c>
-      <c r="J164" t="s">
+      <c r="H164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K164" t="s">
-        <v>12</v>
-      </c>
-      <c r="L164" t="s">
+      <c r="K164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L164" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="A165" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="B165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="E165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H165" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="H165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K165" t="s">
-        <v>12</v>
-      </c>
-      <c r="L165" t="s">
+      <c r="K165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L165" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="A166" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="B166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E166" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H166" t="s">
-        <v>12</v>
-      </c>
-      <c r="I166" t="s">
-        <v>12</v>
-      </c>
-      <c r="J166" t="s">
+      <c r="H166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K166" t="s">
-        <v>12</v>
-      </c>
-      <c r="L166" t="s">
+      <c r="K166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L166" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5548,40 +5571,40 @@
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H174" t="s">
-        <v>12</v>
-      </c>
-      <c r="I174" t="s">
-        <v>12</v>
-      </c>
-      <c r="J174" t="s">
+      <c r="H174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K174" t="s">
-        <v>12</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="K174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L174" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5602,40 +5625,40 @@
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="A176" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="B176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="E176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H176" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" t="s">
-        <v>12</v>
-      </c>
-      <c r="J176" t="s">
+      <c r="H176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J176" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K176" t="s">
-        <v>12</v>
-      </c>
-      <c r="L176" t="s">
+      <c r="K176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L176" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5656,40 +5679,40 @@
       <c r="L177" s="1"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="A178" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H178" t="s">
-        <v>12</v>
-      </c>
-      <c r="I178" t="s">
-        <v>12</v>
-      </c>
-      <c r="J178" t="s">
+      <c r="H178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J178" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K178" t="s">
-        <v>12</v>
-      </c>
-      <c r="L178" t="s">
+      <c r="K178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L178" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5810,40 +5833,40 @@
       <c r="L185" s="1"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="A186" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="B186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E186" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="E186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H186" t="s">
-        <v>12</v>
-      </c>
-      <c r="I186" t="s">
-        <v>12</v>
-      </c>
-      <c r="J186" t="s">
+      <c r="H186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K186" t="s">
-        <v>12</v>
-      </c>
-      <c r="L186" t="s">
+      <c r="K186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L186" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5898,40 +5921,40 @@
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="A190" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="B190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E190" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="E190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H190" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" t="s">
-        <v>12</v>
-      </c>
-      <c r="J190" t="s">
+      <c r="H190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K190" t="s">
-        <v>12</v>
-      </c>
-      <c r="L190" t="s">
+      <c r="K190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L190" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5952,40 +5975,40 @@
       <c r="L191" s="1"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="A192" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="B192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E192" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
+      <c r="E192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H192" t="s">
-        <v>12</v>
-      </c>
-      <c r="I192" t="s">
-        <v>12</v>
-      </c>
-      <c r="J192" t="s">
+      <c r="H192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K192" t="s">
-        <v>12</v>
-      </c>
-      <c r="L192" t="s">
+      <c r="K192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L192" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6072,40 +6095,40 @@
       <c r="L197" s="1"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="A198" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="B198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E198" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" t="s">
+      <c r="E198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H198" t="s">
-        <v>12</v>
-      </c>
-      <c r="I198" t="s">
-        <v>12</v>
-      </c>
-      <c r="J198" t="s">
+      <c r="H198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J198" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K198" t="s">
-        <v>12</v>
-      </c>
-      <c r="L198" t="s">
+      <c r="K198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L198" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6126,40 +6149,40 @@
       <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="A200" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="B200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E200" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="E200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H200" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" t="s">
-        <v>12</v>
-      </c>
-      <c r="J200" t="s">
+      <c r="H200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K200" t="s">
-        <v>12</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="K200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L200" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6214,40 +6237,40 @@
       <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="A204" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="B204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E204" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" t="s">
+      <c r="E204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H204" t="s">
-        <v>12</v>
-      </c>
-      <c r="I204" t="s">
-        <v>12</v>
-      </c>
-      <c r="J204" t="s">
+      <c r="H204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K204" t="s">
-        <v>12</v>
-      </c>
-      <c r="L204" t="s">
+      <c r="K204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L204" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6334,116 +6357,116 @@
       <c r="L209" s="1"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="A210" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="B210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E210" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" t="s">
+      <c r="E210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H210" t="s">
-        <v>12</v>
-      </c>
-      <c r="I210" t="s">
-        <v>12</v>
-      </c>
-      <c r="J210" t="s">
+      <c r="H210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J210" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K210" t="s">
-        <v>12</v>
-      </c>
-      <c r="L210" t="s">
+      <c r="K210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L210" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="A211" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="B211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E211" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" t="s">
+      <c r="E211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H211" t="s">
-        <v>12</v>
-      </c>
-      <c r="I211" t="s">
-        <v>12</v>
-      </c>
-      <c r="J211" t="s">
+      <c r="H211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K211" t="s">
-        <v>12</v>
-      </c>
-      <c r="L211" t="s">
+      <c r="K211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L211" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="A212" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="B212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E212" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" t="s">
+      <c r="E212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H212" t="s">
-        <v>12</v>
-      </c>
-      <c r="I212" t="s">
-        <v>12</v>
-      </c>
-      <c r="J212" t="s">
+      <c r="H212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J212" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K212" t="s">
-        <v>12</v>
-      </c>
-      <c r="L212" t="s">
+      <c r="K212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L212" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6610,192 +6633,192 @@
       <c r="L222" s="1"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="A223" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C223" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E223" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" t="s">
+      <c r="E223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H223" t="s">
-        <v>12</v>
-      </c>
-      <c r="I223" t="s">
-        <v>12</v>
-      </c>
-      <c r="J223" t="s">
+      <c r="H223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J223" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K223" t="s">
-        <v>12</v>
-      </c>
-      <c r="L223" t="s">
+      <c r="K223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L223" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="A224" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B224" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="B224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E224" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" t="s">
+      <c r="E224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H224" t="s">
-        <v>12</v>
-      </c>
-      <c r="I224" t="s">
-        <v>12</v>
-      </c>
-      <c r="J224" t="s">
+      <c r="H224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J224" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K224" t="s">
-        <v>12</v>
-      </c>
-      <c r="L224" t="s">
+      <c r="K224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L224" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="A225" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="B225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E225" t="s">
-        <v>12</v>
-      </c>
-      <c r="F225" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" t="s">
+      <c r="E225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H225" t="s">
-        <v>12</v>
-      </c>
-      <c r="I225" t="s">
-        <v>12</v>
-      </c>
-      <c r="J225" t="s">
+      <c r="H225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J225" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K225" t="s">
-        <v>12</v>
-      </c>
-      <c r="L225" t="s">
+      <c r="K225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L225" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="A226" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="B226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E226" t="s">
-        <v>12</v>
-      </c>
-      <c r="F226" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="E226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H226" t="s">
-        <v>12</v>
-      </c>
-      <c r="I226" t="s">
-        <v>12</v>
-      </c>
-      <c r="J226" t="s">
+      <c r="H226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J226" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K226" t="s">
-        <v>12</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="K226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L226" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="A227" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B227" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="B227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E227" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" t="s">
+      <c r="E227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H227" t="s">
-        <v>12</v>
-      </c>
-      <c r="I227" t="s">
-        <v>12</v>
-      </c>
-      <c r="J227" t="s">
+      <c r="H227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J227" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K227" t="s">
-        <v>12</v>
-      </c>
-      <c r="L227" t="s">
+      <c r="K227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L227" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/sdgs/SDG15.xlsx
+++ b/data/sdgs/SDG15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0004A-7FE2-3146-B147-481A97403578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4490DC3-89A6-464D-AECA-D3A5D39C15E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1420" windowWidth="29400" windowHeight="16240" xr2:uid="{49E2441D-0E4D-8A4D-A0CC-3B3B109C0290}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="421">
   <si>
     <t>keyword_en</t>
   </si>
@@ -1296,6 +1296,9 @@
   </si>
   <si>
     <t>" national forest program"</t>
+  </si>
+  <si>
+    <t>schützen, schutz, nachhaltig, nachhaltigkeit, degradiert, degradation, naturschutz</t>
   </si>
 </sst>
 </file>
@@ -1331,15 +1334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,9 +1347,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1398,6 +1395,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1412,24 +1412,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECF5DB6D-A62F-7B40-A9B0-31F67D7E6189}" name="_SDG15" displayName="_SDG15" ref="A1:L228" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECF5DB6D-A62F-7B40-A9B0-31F67D7E6189}" name="_SDG15" displayName="_SDG15" ref="A1:L228" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:L228" xr:uid="{ECF5DB6D-A62F-7B40-A9B0-31F67D7E6189}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L228">
     <sortCondition ref="A1:A228"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{64EAB0EA-E74E-1E48-8BF1-460D2606B270}" name="keyword_en" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{21122501-A980-9642-AFCC-1E6CC418DDC0}" name="required_context_en" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{58E87C3A-70C5-354A-88E4-7E74895DC3DB}" name="forbidden_context_en" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{228CA5F7-3EF0-3A49-9C24-9910DE69D064}" name="keyword_de" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{7FBEC99D-3544-EB4D-A7B2-F604C0B1ED48}" name="required_context_de" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{B9657F41-65E7-624F-A2B6-F947189EA1B2}" name="forbidden_context_de" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{38E9001B-9BD6-DE4C-A413-BB7244DDCB0A}" name="keyword_fr" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{DFAF4F5B-05BC-D340-BB30-9A49E0326194}" name="required_context_fr" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{D22A4E7A-B4B9-0D4F-968C-51F55748A845}" name="forbidden_context_fr" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{AC03A6BD-6C70-004C-88E7-9567EF90AA47}" name="keyword_it" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{DDB43A33-9E64-C344-A08A-350019190425}" name="required_context_it" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{4F35AF6B-BD34-5746-A6B4-A539BB77C2A9}" name="forbidden_context_it" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{64EAB0EA-E74E-1E48-8BF1-460D2606B270}" name="keyword_en" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{21122501-A980-9642-AFCC-1E6CC418DDC0}" name="required_context_en" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{58E87C3A-70C5-354A-88E4-7E74895DC3DB}" name="forbidden_context_en" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{228CA5F7-3EF0-3A49-9C24-9910DE69D064}" name="keyword_de" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7FBEC99D-3544-EB4D-A7B2-F604C0B1ED48}" name="required_context_de" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B9657F41-65E7-624F-A2B6-F947189EA1B2}" name="forbidden_context_de" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{38E9001B-9BD6-DE4C-A413-BB7244DDCB0A}" name="keyword_fr" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{DFAF4F5B-05BC-D340-BB30-9A49E0326194}" name="required_context_fr" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D22A4E7A-B4B9-0D4F-968C-51F55748A845}" name="forbidden_context_fr" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{AC03A6BD-6C70-004C-88E7-9567EF90AA47}" name="keyword_it" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{DDB43A33-9E64-C344-A08A-350019190425}" name="required_context_it" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{4F35AF6B-BD34-5746-A6B4-A539BB77C2A9}" name="forbidden_context_it" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359AB425-1D9D-6847-8791-FF6AF2FAD2FF}">
   <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1921,40 +1921,40 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       <c r="A12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C12" s="1"/>
@@ -2123,40 +2123,40 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="2" t="s">
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2179,40 +2179,40 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2233,40 +2233,40 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2303,40 +2303,40 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="K28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2373,40 +2373,40 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2477,40 +2477,40 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="2" t="s">
+      <c r="K36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2531,40 +2531,40 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="2" t="s">
+      <c r="K38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2585,40 +2585,40 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="2" t="s">
+      <c r="K40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2655,78 +2655,78 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="2" t="s">
+      <c r="K43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="2" t="s">
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="2" t="s">
+      <c r="K44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2747,40 +2747,40 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="2" t="s">
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="2" t="s">
+      <c r="K46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2897,116 +2897,116 @@
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="E54" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="2" t="s">
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="2" t="s">
+      <c r="K54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="2" t="s">
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="K55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="2" t="s">
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="K56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3125,116 +3125,116 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="2" t="s">
+      <c r="H64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" s="2" t="s">
+      <c r="K64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="2" t="s">
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65" s="2" t="s">
+      <c r="K65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="2" t="s">
+      <c r="K66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3255,40 +3255,40 @@
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="2" t="s">
+      <c r="H68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L68" s="2" t="s">
+      <c r="K68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3309,40 +3309,40 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="2" t="s">
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" s="2" t="s">
+      <c r="K70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3509,40 +3509,40 @@
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="2" t="s">
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="K81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3611,40 +3611,40 @@
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" s="2" t="s">
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="2" t="s">
+      <c r="K86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3667,40 +3667,40 @@
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" s="2" t="s">
+      <c r="H88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" s="2" t="s">
+      <c r="K88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3741,40 +3741,40 @@
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="2" t="s">
+      <c r="H91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" s="2" t="s">
+      <c r="K91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3859,154 +3859,154 @@
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" s="2" t="s">
+      <c r="H97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L97" s="2" t="s">
+      <c r="K97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="2" t="s">
+      <c r="H98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L98" s="2" t="s">
+      <c r="K98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="2" t="s">
+      <c r="H99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L99" s="2" t="s">
+      <c r="K99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="2" t="s">
+      <c r="H100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L100" s="2" t="s">
+      <c r="K100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4027,40 +4027,40 @@
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="2" t="s">
+      <c r="H102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L102" s="2" t="s">
+      <c r="K102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4241,40 +4241,40 @@
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="B114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J114" s="2" t="s">
+      <c r="H114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L114" s="2" t="s">
+      <c r="K114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4297,78 +4297,78 @@
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="B116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="2" t="s">
+      <c r="H116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L116" s="2" t="s">
+      <c r="K116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="B117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="E117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="2" t="s">
+      <c r="H117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" s="2" t="s">
+      <c r="K117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4405,40 +4405,40 @@
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="2" t="s">
+      <c r="H120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" s="2" t="s">
+      <c r="K120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4459,40 +4459,40 @@
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" s="2" t="s">
+      <c r="H122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L122" s="2" t="s">
+      <c r="K122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4547,40 +4547,40 @@
       <c r="L125" s="1"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="E126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J126" s="2" t="s">
+      <c r="H126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" s="2" t="s">
+      <c r="K126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4683,116 +4683,116 @@
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="B133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J133" s="2" t="s">
+      <c r="H133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L133" s="2" t="s">
+      <c r="K133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L133" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="E134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J134" s="2" t="s">
+      <c r="H134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L134" s="2" t="s">
+      <c r="K134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L134" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="E135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" s="2" t="s">
+      <c r="H135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L135" s="2" t="s">
+      <c r="K135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4813,40 +4813,40 @@
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="B137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="E137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J137" s="2" t="s">
+      <c r="H137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L137" s="2" t="s">
+      <c r="K137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L137" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5115,40 +5115,40 @@
       <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="B154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="E154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J154" s="2" t="s">
+      <c r="H154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L154" s="2" t="s">
+      <c r="K154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5169,40 +5169,40 @@
       <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="B156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="E156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J156" s="2" t="s">
+      <c r="H156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L156" s="2" t="s">
+      <c r="K156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L156" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5271,40 +5271,40 @@
       <c r="L160" s="1"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="B161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J161" s="2" t="s">
+      <c r="H161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L161" s="2" t="s">
+      <c r="K161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L161" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5345,116 +5345,116 @@
       <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J164" s="2" t="s">
+      <c r="H164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L164" s="2" t="s">
+      <c r="K164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L164" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="B165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165" s="2" t="s">
+      <c r="H165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L165" s="2" t="s">
+      <c r="K165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L165" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="B166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="E166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J166" s="2" t="s">
+      <c r="H166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L166" s="2" t="s">
+      <c r="K166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L166" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5571,40 +5571,40 @@
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="B174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="E174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J174" s="2" t="s">
+      <c r="H174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L174" s="2" t="s">
+      <c r="K174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5625,40 +5625,40 @@
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="B176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="2" t="s">
+      <c r="E176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J176" s="2" t="s">
+      <c r="H176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L176" s="2" t="s">
+      <c r="K176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5679,40 +5679,40 @@
       <c r="L177" s="1"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="B178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="E178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J178" s="2" t="s">
+      <c r="H178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L178" s="2" t="s">
+      <c r="K178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5833,40 +5833,40 @@
       <c r="L185" s="1"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="B186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="2" t="s">
+      <c r="E186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J186" s="2" t="s">
+      <c r="H186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L186" s="2" t="s">
+      <c r="K186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5921,40 +5921,40 @@
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="B190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="2" t="s">
+      <c r="E190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J190" s="2" t="s">
+      <c r="H190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L190" s="2" t="s">
+      <c r="K190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5975,40 +5975,40 @@
       <c r="L191" s="1"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="E192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J192" s="2" t="s">
+      <c r="H192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L192" s="2" t="s">
+      <c r="K192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6095,40 +6095,40 @@
       <c r="L197" s="1"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="B198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" s="2" t="s">
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J198" s="2" t="s">
+      <c r="H198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L198" s="2" t="s">
+      <c r="K198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6149,40 +6149,40 @@
       <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="B200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="E200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J200" s="2" t="s">
+      <c r="H200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L200" s="2" t="s">
+      <c r="K200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6237,40 +6237,40 @@
       <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="B204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="2" t="s">
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J204" s="2" t="s">
+      <c r="H204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L204" s="2" t="s">
+      <c r="K204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6357,116 +6357,116 @@
       <c r="L209" s="1"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="B210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="2" t="s">
+      <c r="E210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J210" s="2" t="s">
+      <c r="H210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J210" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L210" s="2" t="s">
+      <c r="K210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="B211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="2" t="s">
+      <c r="E211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J211" s="2" t="s">
+      <c r="H211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L211" s="2" t="s">
+      <c r="K211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="B212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="2" t="s">
+      <c r="E212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J212" s="2" t="s">
+      <c r="H212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J212" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L212" s="2" t="s">
+      <c r="K212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6633,192 +6633,192 @@
       <c r="L222" s="1"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="C223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" s="2" t="s">
+      <c r="E223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J223" s="2" t="s">
+      <c r="H223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J223" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L223" s="2" t="s">
+      <c r="K223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="B224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" s="2" t="s">
+      <c r="E224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J224" s="2" t="s">
+      <c r="H224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J224" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L224" s="2" t="s">
+      <c r="K224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="B225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" s="2" t="s">
+      <c r="E225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J225" s="2" t="s">
+      <c r="H225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J225" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L225" s="2" t="s">
+      <c r="K225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="B226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="2" t="s">
+      <c r="E226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J226" s="2" t="s">
+      <c r="H226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J226" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L226" s="2" t="s">
+      <c r="K226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="B227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="E227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J227" s="2" t="s">
+      <c r="H227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J227" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L227" s="2" t="s">
+      <c r="K227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>12</v>
       </c>
     </row>
